--- a/HealthScore/src/Resources/Health score calculator.xlsx
+++ b/HealthScore/src/Resources/Health score calculator.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3F8EB9BD-0268-4021-8E55-9FF73859D6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2401014_cognizant_com/Documents/Desktop/NoSuchTeam/HealthScore/src/Resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="703" documentId="8_{BE8351B2-2FD7-4A26-8C8E-5CC46E551842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67467402-6E3C-43C8-92F8-4861ECF9C43D}"/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="760" yWindow="760" windowWidth="19460" windowHeight="11060" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="2810" windowWidth="14400" windowHeight="7270" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -18,8 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TEST CASES'!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="240">
   <si>
     <t>Note</t>
   </si>
@@ -516,7 +520,7 @@
     <t>The system provides the result if BP and Pulse score difference is less than 4</t>
   </si>
   <si>
-    <t>S07_TC07</t>
+    <t>S08_TC01</t>
   </si>
   <si>
     <t>Validate Alerts for invalid pairs of Systolic and Diastolic BP</t>
@@ -531,22 +535,82 @@
     <t>The system provides the result if Systolic BP is in the range 80-89 and Diastolic BP is in the range 50-59</t>
   </si>
   <si>
+    <t>Alert displayed for invalid Systolic and Diastolic pairs, Systolic BP values not accepted greater than 120</t>
+  </si>
+  <si>
+    <t>S08_TC02</t>
+  </si>
+  <si>
     <t>The system should provide "Provided BP values are not valid. Please check once again" alert  if Systolic BP is in the range 80-89 and Diastolic BP is in the range 60-69</t>
   </si>
   <si>
     <t>The system provides the "Provided BP values are not valid. Please check once again" alert  if Systolic BP is in the range 80-89 and Diastolic BP is in the range 60-69</t>
   </si>
   <si>
+    <t>S08_TC03</t>
+  </si>
+  <si>
     <t>The system should provide result if Systolic BP is in the range 90-109 and Diastolic BP is in the range 60-69</t>
   </si>
   <si>
     <t>The system provides the result if Systolic BP is in the range 90-109 and Diastolic BP is in the range 60-69</t>
   </si>
   <si>
-    <t>The system should provide result if Systolic BP is in the range 110-130 and Diastolic BP is in the range 70-69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system does not accept </t>
+    <t>S08_TC04</t>
+  </si>
+  <si>
+    <t>The system should provide result if Systolic BP is in the range 110-130 and Diastolic BP is in the range 70-85</t>
+  </si>
+  <si>
+    <t>The system does not accept Systolic BP value greater than 120</t>
+  </si>
+  <si>
+    <t>S08_TC04_D04</t>
+  </si>
+  <si>
+    <t>S08_TC05</t>
+  </si>
+  <si>
+    <t>The system should provide result if Systolic BP is in the range 131-139 and Diastolic BP is in the range 86-89</t>
+  </si>
+  <si>
+    <t>S08_TC05_D05</t>
+  </si>
+  <si>
+    <t>S08_TC06</t>
+  </si>
+  <si>
+    <t>The system should provide result if Systolic BP is in the range 140-149 and Diastolic BP is in the range 90-99</t>
+  </si>
+  <si>
+    <t>S08_TC06_D06</t>
+  </si>
+  <si>
+    <t>Validate remarks displayed in result page</t>
+  </si>
+  <si>
+    <t>Health index calculator page should be displayed and Name, Age, Pulse (BPM) field, Systolic BP field, Diastolic BP field, calculate button should be validated</t>
+  </si>
+  <si>
+    <t>Enter that result page is giving appropriate remarks for the scores displayed</t>
+  </si>
+  <si>
+    <t>The system should display "Excellent" result if final score is in the range 90-100</t>
+  </si>
+  <si>
+    <t>The system displays "Excellent" result if final score is in the range 90-100</t>
+  </si>
+  <si>
+    <t>The system should display "Good" result if final score is in the range 75-89</t>
+  </si>
+  <si>
+    <t>The system displays "Good" result if final score is in the range 75-89</t>
+  </si>
+  <si>
+    <t>The system should display "Average" result if final score is in the range 50-74</t>
+  </si>
+  <si>
+    <t>The system displays "Average" result if final score is in the range 50-74</t>
   </si>
   <si>
     <t>Serial no.</t>
@@ -603,9 +667,36 @@
     <t>Restricts input values greater than 120 in the Systolic BP field</t>
   </si>
   <si>
+    <t>1. Enter Name
+2. Enter Age
+3. Choose Pulse(BPM) value
+4. Enter Systolic BP</t>
+  </si>
+  <si>
+    <t>Error message is displayed</t>
+  </si>
+  <si>
     <t>Accepts input values greater than or equal to 100 in the Diastolic BP field</t>
   </si>
   <si>
+    <t>1. Enter Name
+2. Enter Age
+3. Choose Pulse(BPM) value
+4. Enter Systolic BP
+5. Enter Diastolic BP</t>
+  </si>
+  <si>
+    <t>Systolic BP values not accepted greater than 120</t>
+  </si>
+  <si>
+    <t>1. Enter Name
+2. Enter Age
+3. Choose Pulse(BPM) value
+4. Enter Systolic BP
+5. Enter Diastolic BP
+6. Enter Calculate button</t>
+  </si>
+  <si>
     <t>Serial no</t>
   </si>
   <si>
@@ -663,19 +754,28 @@
     <t>"Age" field</t>
   </si>
   <si>
-    <t>"Pulse(Bpm)" field</t>
-  </si>
-  <si>
-    <t>"Email" field</t>
-  </si>
-  <si>
-    <t>"Phone" field</t>
-  </si>
-  <si>
     <t>valid</t>
   </si>
   <si>
     <t>invalid</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>bilal</t>
+  </si>
+  <si>
+    <t>john123</t>
+  </si>
+  <si>
+    <t>gnan prakash</t>
+  </si>
+  <si>
+    <t>dev@12</t>
   </si>
 </sst>
 </file>
@@ -782,7 +882,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -872,6 +972,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -930,12 +1043,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,9 +1058,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -963,19 +1067,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -984,7 +1097,57 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC49500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1789,9 +1952,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2033,8 +2196,6 @@
     <row r="22" spans="3:3">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="3:3" ht="15"/>
-    <row r="24" spans="3:3" ht="15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2044,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" zoomScale="72" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="E24" zoomScale="72" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
@@ -2060,7 +2221,7 @@
     <col min="7" max="7" width="40.1796875" style="5" customWidth="1"/>
     <col min="8" max="8" width="20.1796875" style="5" customWidth="1"/>
     <col min="9" max="9" width="21.54296875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.26953125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="28.453125" style="5" customWidth="1"/>
     <col min="11" max="11" width="9.1796875" style="5" customWidth="1"/>
     <col min="12" max="16384" width="9.26953125" style="5"/>
   </cols>
@@ -2099,20 +2260,20 @@
       <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="29">
-      <c r="A2" s="33" t="str">
+      <c r="A2" s="32" t="str">
         <f>'TEST SCENARIO'!B2</f>
         <v>S01</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -2128,18 +2289,18 @@
         <f>'DEFECT REPORT'!B2</f>
         <v>S01_TC01_D01</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="32" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29.15" customHeight="1">
-      <c r="A3" s="33"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="7" t="s">
         <v>80</v>
       </c>
@@ -2152,16 +2313,16 @@
       <c r="I3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="33"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="29">
-      <c r="A4" s="33"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="7" t="s">
         <v>85</v>
       </c>
@@ -2174,23 +2335,23 @@
       <c r="I4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="33"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A5" s="33" t="str">
+      <c r="A5" s="32" t="str">
         <f>'TEST SCENARIO'!B3</f>
         <v>S02</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>90</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -2205,18 +2366,18 @@
       <c r="I5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="32" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A6" s="33"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="7" t="s">
         <v>95</v>
       </c>
@@ -2229,16 +2390,16 @@
       <c r="I6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="33"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A7" s="33"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="7" t="s">
         <v>98</v>
       </c>
@@ -2251,23 +2412,23 @@
       <c r="I7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="33"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="36.75" customHeight="1">
-      <c r="A8" s="33" t="str">
+      <c r="A8" s="32" t="str">
         <f>'TEST SCENARIO'!B4</f>
         <v>S03</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="32" t="s">
         <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -2282,18 +2443,18 @@
       <c r="I8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="32" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="36" customHeight="1">
-      <c r="A9" s="33"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="7" t="s">
         <v>108</v>
       </c>
@@ -2306,22 +2467,22 @@
       <c r="I9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -2336,18 +2497,18 @@
       <c r="I10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1">
-      <c r="A11" s="33"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="7" t="s">
         <v>118</v>
       </c>
@@ -2360,16 +2521,16 @@
       <c r="I11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="33"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:11" ht="36" customHeight="1">
-      <c r="A12" s="33"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="7" t="s">
         <v>122</v>
       </c>
@@ -2382,22 +2543,22 @@
       <c r="I12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="33"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:11" ht="33" customHeight="1">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -2412,19 +2573,19 @@
       <c r="I13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="32" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A14" s="33"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="32" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="28" t="s">
         <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -2436,17 +2597,17 @@
       <c r="I14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A15" s="33"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="23" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="21" t="s">
         <v>135</v>
       </c>
       <c r="G15" s="7" t="s">
@@ -2458,23 +2619,23 @@
       <c r="I15" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="J15" s="33"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:11" ht="29">
-      <c r="A16" s="33" t="str">
+      <c r="A16" s="32" t="str">
         <f>'TEST SCENARIO'!B7</f>
         <v>S06</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>141</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -2489,18 +2650,18 @@
       <c r="I16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="32" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="39" customHeight="1">
-      <c r="A17" s="33"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="7" t="s">
         <v>146</v>
       </c>
@@ -2513,23 +2674,23 @@
       <c r="I17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="33"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A18" s="33" t="str">
+      <c r="A18" s="32" t="str">
         <f>'TEST SCENARIO'!B8</f>
         <v>S07</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="32" t="s">
         <v>151</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -2544,18 +2705,18 @@
       <c r="I18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="32" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="57" customHeight="1">
-      <c r="A19" s="33"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="7" t="s">
         <v>156</v>
       </c>
@@ -2568,23 +2729,23 @@
       <c r="I19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J19" s="33"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10" ht="54" customHeight="1">
-      <c r="A20" s="33" t="str">
+      <c r="A20" s="32" t="str">
         <f>'TEST SCENARIO'!B9</f>
         <v>S08</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="32" t="s">
         <v>160</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -2599,21 +2760,23 @@
       <c r="I20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="33" t="s">
-        <v>154</v>
+      <c r="J20" s="32" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>82</v>
@@ -2621,19 +2784,21 @@
       <c r="I21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="33"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:10" ht="54" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>82</v>
@@ -2641,62 +2806,154 @@
       <c r="I22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="33"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10" ht="54" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="33"/>
+        <v>172</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="33"/>
+        <v>175</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" ht="66.75" customHeight="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="H25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" ht="29">
+      <c r="A26" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J25" s="33"/>
-    </row>
-    <row r="26" spans="1:10"/>
+      <c r="J26" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="29">
+      <c r="A27" s="32"/>
+      <c r="B27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="32"/>
+    </row>
+    <row r="28" spans="1:10" ht="29">
+      <c r="A28" s="32"/>
+      <c r="B28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="45">
     <mergeCell ref="J20:J25"/>
     <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
     <mergeCell ref="C20:C25"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="E20:E25"/>
@@ -2735,18 +2992,23 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="J26:J28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H2:H25">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Pass">
+  <conditionalFormatting sqref="H2:H28">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H25" xr:uid="{D5498283-2491-477A-AA13-92072507AB94}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H28" xr:uid="{D5498283-2491-477A-AA13-92072507AB94}">
       <formula1>"Fail,Pass"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2759,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
@@ -2775,40 +3037,40 @@
     <col min="8" max="8" width="19.1796875" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.54296875" style="3" customWidth="1"/>
     <col min="10" max="10" width="18.26953125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18" style="3" customWidth="1"/>
+    <col min="11" max="11" width="28.81640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9.26953125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>70</v>
@@ -2819,69 +3081,174 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="11"/>
       <c r="J2" s="7" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="29" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A3" s="27">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="26" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-    </row>
-    <row r="4" spans="1:11" s="31" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A4" s="27">
+      <c r="C3" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="27" customFormat="1" ht="81" customHeight="1">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
+      <c r="C4" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="105.75" customHeight="1">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="100.5" customHeight="1">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="102.75" customHeight="1">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="E8" s="3"/>
@@ -2889,43 +3256,60 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="14" priority="30" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Major">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Major">
       <formula>NOT(ISERROR(SEARCH("Major",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Superficial">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Superficial">
       <formula>NOT(ISERROR(SEARCH("Superficial",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Minor">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="Minor">
       <formula>NOT(ISERROR(SEARCH("Minor",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Immediate">
+    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="Immediate">
       <formula>NOT(ISERROR(SEARCH("Immediate",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G2">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="8" priority="22" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="7" priority="23" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="6" priority="24" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F3:G4">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",F3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2933,7 +3317,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{25503547-9F01-49A9-81A7-BE2566D2F06B}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{A9F6B55D-AAF0-4B9D-8E6E-0202BBC472E9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4 F3:F4" xr:uid="{A9F6B55D-AAF0-4B9D-8E6E-0202BBC472E9}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{0E17C4A9-FAEC-42F5-AB5F-ADF74DE2C0FB}">
@@ -2973,22 +3357,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="58">
@@ -2996,10 +3380,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>'TEST SCENARIO'!B2</f>
@@ -3019,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="str">
@@ -3034,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="str">
@@ -3049,7 +3433,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="str">
@@ -3064,7 +3448,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="str">
@@ -3079,7 +3463,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="str">
@@ -3094,7 +3478,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="str">
@@ -3109,7 +3493,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="str">
@@ -3124,7 +3508,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="str">
@@ -3139,7 +3523,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="str">
@@ -3154,7 +3538,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="str">
@@ -3173,9 +3557,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6104935A-87A5-4196-A00D-D5A131ECAF53}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScale="76" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -3185,205 +3569,103 @@
     <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="17.7265625" customWidth="1"/>
     <col min="4" max="4" width="21.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="6" max="6" width="29.54296875" customWidth="1"/>
-    <col min="7" max="7" width="24.453125" customWidth="1"/>
-    <col min="8" max="8" width="20.54296875" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" customWidth="1"/>
-    <col min="12" max="12" width="30.7265625" customWidth="1"/>
-    <col min="15" max="15" width="22.54296875" customWidth="1"/>
-    <col min="16" max="16" width="20.1796875" customWidth="1"/>
-    <col min="17" max="17" width="29.453125" customWidth="1"/>
-    <col min="18" max="18" width="27.81640625" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" customWidth="1"/>
+    <col min="11" max="11" width="29.453125" customWidth="1"/>
+    <col min="12" max="12" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="22" customFormat="1">
-      <c r="A1" s="34" t="s">
-        <v>205</v>
+    <row r="1" spans="1:11" s="20" customFormat="1">
+      <c r="A1" s="33" t="s">
+        <v>230</v>
       </c>
       <c r="B1" s="34"/>
-      <c r="C1" s="34" t="s">
-        <v>206</v>
+      <c r="C1" s="33" t="s">
+        <v>231</v>
       </c>
       <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1" s="34"/>
-    </row>
-    <row r="2" spans="1:17" s="21" customFormat="1">
+    </row>
+    <row r="2" spans="1:11" s="19" customFormat="1">
       <c r="A2" s="18" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="24"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="22">
+        <v>18</v>
+      </c>
+      <c r="D3" s="22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="7">
+        <v>75</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="Q7" s="15"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="H8" s="15"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="L9" s="17"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="7"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="F9" s="17"/>
+      <c r="G9" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C10:D10"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{325D128E-47BF-4DAE-B107-CE7E1EA5470D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HealthScore/src/Resources/Health score calculator.xlsx
+++ b/HealthScore/src/Resources/Health score calculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2401014_cognizant_com/Documents/Desktop/NoSuchTeam/HealthScore/src/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2401015_cognizant_com/Documents/Desktop/NoSuchTeam/HealthScore/src/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="703" documentId="8_{BE8351B2-2FD7-4A26-8C8E-5CC46E551842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67467402-6E3C-43C8-92F8-4861ECF9C43D}"/>
+  <xr:revisionPtr revIDLastSave="705" documentId="8_{BE8351B2-2FD7-4A26-8C8E-5CC46E551842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFBB72E0-C624-4634-A7C3-4D73982DDCF9}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2810" windowWidth="14400" windowHeight="7270" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -2952,21 +2952,26 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="E20:E25"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:C9"/>
@@ -2977,26 +2982,21 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="E20:E25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:H28">
@@ -3560,7 +3560,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/HealthScore/src/Resources/Health score calculator.xlsx
+++ b/HealthScore/src/Resources/Health score calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2401014_cognizant_com/Documents/Desktop/NoSuchTeam/HealthScore/src/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="703" documentId="8_{BE8351B2-2FD7-4A26-8C8E-5CC46E551842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67467402-6E3C-43C8-92F8-4861ECF9C43D}"/>
+  <xr:revisionPtr revIDLastSave="706" documentId="8_{BE8351B2-2FD7-4A26-8C8E-5CC46E551842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C46CFD4F-3919-461F-8EE0-6A6E48ECFD8D}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2810" windowWidth="14400" windowHeight="7270" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -991,7 +991,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1027,27 +1027,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2257,23 +2241,23 @@
       <c r="J1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="14"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="29">
-      <c r="A2" s="32" t="str">
+      <c r="A2" s="26" t="str">
         <f>'TEST SCENARIO'!B2</f>
         <v>S01</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="26" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -2289,18 +2273,18 @@
         <f>'DEFECT REPORT'!B2</f>
         <v>S01_TC01_D01</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="26" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29.15" customHeight="1">
-      <c r="A3" s="32"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="7" t="s">
         <v>80</v>
       </c>
@@ -2313,16 +2297,16 @@
       <c r="I3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="29">
-      <c r="A4" s="32"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="7" t="s">
         <v>85</v>
       </c>
@@ -2335,23 +2319,23 @@
       <c r="I4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A5" s="32" t="str">
+      <c r="A5" s="26" t="str">
         <f>'TEST SCENARIO'!B3</f>
         <v>S02</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="26" t="s">
         <v>90</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -2366,18 +2350,18 @@
       <c r="I5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="26" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A6" s="32"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="7" t="s">
         <v>95</v>
       </c>
@@ -2390,16 +2374,16 @@
       <c r="I6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="32"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A7" s="32"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="7" t="s">
         <v>98</v>
       </c>
@@ -2412,23 +2396,23 @@
       <c r="I7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="32"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:11" ht="36.75" customHeight="1">
-      <c r="A8" s="32" t="str">
+      <c r="A8" s="26" t="str">
         <f>'TEST SCENARIO'!B4</f>
         <v>S03</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="26" t="s">
         <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -2443,18 +2427,18 @@
       <c r="I8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="36" customHeight="1">
-      <c r="A9" s="32"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="7" t="s">
         <v>108</v>
       </c>
@@ -2467,22 +2451,22 @@
       <c r="I9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="32"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="26" t="s">
         <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -2497,18 +2481,18 @@
       <c r="I10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="26" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1">
-      <c r="A11" s="32"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="7" t="s">
         <v>118</v>
       </c>
@@ -2521,16 +2505,16 @@
       <c r="I11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="32"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:11" ht="36" customHeight="1">
-      <c r="A12" s="32"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="7" t="s">
         <v>122</v>
       </c>
@@ -2543,22 +2527,22 @@
       <c r="I12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="32"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:11" ht="33" customHeight="1">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="26" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="26" t="s">
         <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -2573,19 +2557,19 @@
       <c r="I13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="26" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A14" s="32"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="28" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="22" t="s">
         <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -2597,17 +2581,17 @@
       <c r="I14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="32"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A15" s="32"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="21" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="15" t="s">
         <v>135</v>
       </c>
       <c r="G15" s="7" t="s">
@@ -2619,23 +2603,23 @@
       <c r="I15" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="J15" s="32"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:11" ht="29">
-      <c r="A16" s="32" t="str">
+      <c r="A16" s="26" t="str">
         <f>'TEST SCENARIO'!B7</f>
         <v>S06</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="26" t="s">
         <v>141</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -2650,18 +2634,18 @@
       <c r="I16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="26" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="39" customHeight="1">
-      <c r="A17" s="32"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="7" t="s">
         <v>146</v>
       </c>
@@ -2674,23 +2658,23 @@
       <c r="I17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="32"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A18" s="32" t="str">
+      <c r="A18" s="26" t="str">
         <f>'TEST SCENARIO'!B8</f>
         <v>S07</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="26" t="s">
         <v>151</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -2705,18 +2689,18 @@
       <c r="I18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="26" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="57" customHeight="1">
-      <c r="A19" s="32"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="7" t="s">
         <v>156</v>
       </c>
@@ -2729,23 +2713,23 @@
       <c r="I19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J19" s="32"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" ht="54" customHeight="1">
-      <c r="A20" s="32" t="str">
+      <c r="A20" s="26" t="str">
         <f>'TEST SCENARIO'!B9</f>
         <v>S08</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="26" t="s">
         <v>160</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -2760,18 +2744,18 @@
       <c r="I20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="26" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A21" s="32"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="7" t="s">
         <v>165</v>
       </c>
@@ -2784,16 +2768,16 @@
       <c r="I21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="32"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" ht="54" customHeight="1">
-      <c r="A22" s="32"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="7" t="s">
         <v>168</v>
       </c>
@@ -2806,16 +2790,16 @@
       <c r="I22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="32"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" ht="54" customHeight="1">
-      <c r="A23" s="32"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="7" t="s">
         <v>171</v>
       </c>
@@ -2828,16 +2812,16 @@
       <c r="I23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="J23" s="32"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A24" s="32"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="7" t="s">
         <v>175</v>
       </c>
@@ -2850,16 +2834,16 @@
       <c r="I24" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="J24" s="32"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" ht="66.75" customHeight="1">
-      <c r="A25" s="32"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="7" t="s">
         <v>178</v>
       </c>
@@ -2872,22 +2856,22 @@
       <c r="I25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="J25" s="32"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" ht="29">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="26" t="s">
         <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -2902,18 +2886,18 @@
       <c r="I26" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="26" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="29">
-      <c r="A27" s="32"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="7" t="s">
         <v>185</v>
       </c>
@@ -2926,16 +2910,16 @@
       <c r="I27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J27" s="32"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" ht="29">
-      <c r="A28" s="32"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="7" t="s">
         <v>187</v>
       </c>
@@ -2948,25 +2932,30 @@
       <c r="I28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J28" s="32"/>
+      <c r="J28" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="E20:E25"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:C9"/>
@@ -2977,26 +2966,21 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="E20:E25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:H28">
@@ -3107,20 +3091,20 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="26" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A3" s="24">
+    <row r="3" spans="1:11" s="20" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="23" t="s">
         <v>207</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -3129,29 +3113,29 @@
       <c r="G3" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="24" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="27" customFormat="1" ht="81" customHeight="1">
-      <c r="A4" s="24">
+    <row r="4" spans="1:11" s="21" customFormat="1" ht="81" customHeight="1">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="23" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -3160,93 +3144,93 @@
       <c r="G4" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="18" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="105.75" customHeight="1">
-      <c r="A5" s="24">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="18" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="100.5" customHeight="1">
-      <c r="A6" s="30">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="24" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="102.75" customHeight="1">
-      <c r="A7" s="30">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="24" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3341,7 +3325,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A15" sqref="A15:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
@@ -3557,64 +3541,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6104935A-87A5-4196-A00D-D5A131ECAF53}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="18.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" customWidth="1"/>
-    <col min="6" max="6" width="30.7265625" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" customWidth="1"/>
-    <col min="11" max="11" width="29.453125" customWidth="1"/>
-    <col min="12" max="12" width="27.81640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="20" customFormat="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="34"/>
-    </row>
-    <row r="2" spans="1:11" s="19" customFormat="1">
-      <c r="A2" s="18" t="s">
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="16">
         <v>18</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="16">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
         <v>236</v>
       </c>
@@ -3628,11 +3601,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:4" ht="29">
       <c r="A5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>239</v>
       </c>
       <c r="C5" s="7">
@@ -3641,22 +3614,6 @@
       <c r="D5" s="7">
         <v>-17</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="F9" s="17"/>
-      <c r="G9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
